--- a/Week results.xlsx
+++ b/Week results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>For Jorada 16</t>
   </si>
@@ -76,13 +76,34 @@
   </si>
   <si>
     <t>Chiapas</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>For Jornada 17</t>
+  </si>
+  <si>
+    <t>Guess</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,6 +127,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,24 +155,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -150,7 +206,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Black">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -192,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,7 +257,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -236,7 +292,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -294,16 +350,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -425,63 +485,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" customWidth="1"/>
   </cols>
@@ -656,7 +677,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -667,7 +688,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -678,7 +699,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -689,202 +710,445 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="str">
-        <f>IF(C22&gt;E22, "G", IF(C22 &lt; E22, "P", "E"))</f>
-        <v>E</v>
-      </c>
-      <c r="B22" s="1" t="str">
+    <row r="20" spans="1:7">
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="str">
         <f>B17</f>
         <v>Veracruz</v>
       </c>
-      <c r="C22">
+      <c r="B21">
         <f>C17</f>
         <v>-2.6</v>
       </c>
-      <c r="D22" s="1" t="str">
+      <c r="C21" s="1" t="str">
         <f>B8</f>
         <v>Morelia</v>
       </c>
-      <c r="E22">
+      <c r="D21">
         <f>C8</f>
         <v>-2.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="str">
-        <f>IF(C23&gt;E23, "G", IF(C23 &lt; E23, "P", "E"))</f>
-        <v>P</v>
-      </c>
-      <c r="B23" s="1" t="str">
+      <c r="F21" t="str">
+        <f>IF(B21&gt;D21, "G", IF(B21 &lt; D21, "P", "E"))</f>
+        <v>E</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="str">
         <f>B6</f>
         <v>Santos</v>
       </c>
-      <c r="C23">
+      <c r="B22">
         <f>C6</f>
         <v>-4.8</v>
       </c>
-      <c r="D23" s="1" t="str">
+      <c r="C22" s="1" t="str">
         <f>B7</f>
         <v>Guadalajara</v>
       </c>
-      <c r="E23">
+      <c r="D22">
         <f>C7</f>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="str">
-        <f>IF(C24&gt;E24, "G", IF(C24 &lt; E24, "P", "E"))</f>
+      <c r="F22" t="str">
+        <f>IF(B22&gt;D22, "G", IF(B22 &lt; D22, "P", "E"))</f>
         <v>P</v>
       </c>
-      <c r="B24" s="1" t="str">
+      <c r="G22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="str">
         <f>B9</f>
         <v>Cruz Azul</v>
       </c>
-      <c r="C24">
+      <c r="B23">
         <f>C9</f>
         <v>-7.8</v>
       </c>
-      <c r="D24" s="1" t="str">
+      <c r="C23" s="1" t="str">
         <f>B10</f>
         <v>U.A.N.L</v>
       </c>
-      <c r="E24">
+      <c r="D23">
         <f>C10</f>
         <v>-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="str">
-        <f>IF(C25&gt;E25, "G", IF(C25 &lt; E25, "P", "E"))</f>
-        <v>G</v>
-      </c>
-      <c r="B25" s="1" t="str">
+      <c r="F23" t="str">
+        <f>IF(B23&gt;D23, "G", IF(B23 &lt; D23, "P", "E"))</f>
+        <v>P</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="str">
         <f>B2</f>
         <v>Monterrey</v>
       </c>
-      <c r="C25">
+      <c r="B24">
         <f>C2</f>
         <v>4.2</v>
       </c>
-      <c r="D25" s="1" t="str">
+      <c r="C24" s="1" t="str">
         <f>B12</f>
         <v>Toluca</v>
       </c>
-      <c r="E25">
+      <c r="D24">
         <f>C12</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="str">
-        <f>IF(C26&gt;E26, "G", IF(C26 &lt; E26, "P", "E"))</f>
-        <v>E</v>
-      </c>
-      <c r="B26" s="1" t="str">
+      <c r="F24" t="str">
+        <f>IF(B24&gt;D24, "G", IF(B24 &lt; D24, "P", "E"))</f>
+        <v>G</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="str">
         <f>B4</f>
         <v>Pachuca</v>
       </c>
-      <c r="C26">
+      <c r="B25">
         <f>C4</f>
         <v>-1.8</v>
       </c>
-      <c r="D26" s="1" t="str">
+      <c r="C25" s="1" t="str">
         <f>B19</f>
         <v>Chiapas</v>
       </c>
-      <c r="E26">
+      <c r="D25">
         <f>C19</f>
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="str">
-        <f>IF(C27&gt;E27, "G", IF(C27 &lt; E27, "P", "E"))</f>
-        <v>P</v>
-      </c>
-      <c r="B27" s="1" t="str">
+      <c r="F25" t="str">
+        <f>IF(B25&gt;D25, "G", IF(B25 &lt; D25, "P", "E"))</f>
+        <v>E</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="str">
         <f>B18</f>
         <v>Atlas</v>
       </c>
-      <c r="C27">
+      <c r="B26">
         <f>C18</f>
         <v>-2.6</v>
       </c>
-      <c r="D27" s="1" t="str">
+      <c r="C26" s="1" t="str">
         <f>B15</f>
         <v>Tijuana</v>
       </c>
-      <c r="E27">
+      <c r="D26">
         <f>C15</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="str">
-        <f>IF(C28&gt;E28, "G", IF(C28 &lt; E28, "P", "E"))</f>
-        <v>G</v>
-      </c>
-      <c r="B28" s="1" t="str">
+      <c r="F26" t="str">
+        <f>IF(B26&gt;D26, "G", IF(B26 &lt; D26, "P", "E"))</f>
+        <v>P</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="str">
         <f>B16</f>
         <v>Dorados</v>
       </c>
-      <c r="C28">
+      <c r="B27">
         <f>C16</f>
         <v>1.2</v>
       </c>
-      <c r="D28" s="1" t="str">
+      <c r="C27" s="1" t="str">
         <f>B5</f>
         <v>León</v>
       </c>
-      <c r="E28">
+      <c r="D27">
         <f>C5</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="str">
-        <f>IF(C29&gt;E29, "G", IF(C29 &lt; E29, "P", "E"))</f>
-        <v>P</v>
-      </c>
-      <c r="B29" s="1" t="str">
+      <c r="F27" t="str">
+        <f>IF(B27&gt;D27, "G", IF(B27 &lt; D27, "P", "E"))</f>
+        <v>G</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="str">
         <f>B11</f>
         <v>Pumas UNAM</v>
       </c>
-      <c r="C29">
+      <c r="B28">
         <f>C11</f>
         <v>-4.8</v>
       </c>
-      <c r="D29" s="1" t="str">
+      <c r="C28" s="1" t="str">
         <f>B3</f>
         <v>America</v>
       </c>
-      <c r="E29">
+      <c r="D28">
         <f>C3</f>
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="str">
-        <f>IF(C30&gt;E30, "G", IF(C30 &lt; E30, "P", "E"))</f>
+      <c r="F28" t="str">
+        <f>IF(B28&gt;D28, "G", IF(B28 &lt; D28, "P", "E"))</f>
         <v>P</v>
       </c>
-      <c r="B30" s="1" t="str">
+      <c r="G28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="str">
         <f>B14</f>
         <v>Puebla</v>
       </c>
-      <c r="C30">
+      <c r="B29">
         <f>C14</f>
         <v>-10</v>
       </c>
-      <c r="D30" s="1" t="str">
+      <c r="C29" s="1" t="str">
         <f>B13</f>
         <v>Querétaro</v>
       </c>
-      <c r="E30">
+      <c r="D29">
         <f>C13</f>
         <v>4.2</v>
+      </c>
+      <c r="F29" t="str">
+        <f>IF(B29&gt;D29, "G", IF(B29 &lt; D29, "P", "E"))</f>
+        <v>P</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="str">
+        <f>B36</f>
+        <v>Monterrey</v>
+      </c>
+      <c r="B45" s="4">
+        <f>C36</f>
+        <v>1.2</v>
+      </c>
+      <c r="C45" t="str">
+        <f>B43</f>
+        <v>U.A.N.L</v>
+      </c>
+      <c r="D45" s="4">
+        <f>C43</f>
+        <v>-1.8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="str">
+        <f>B41</f>
+        <v>Morelia</v>
+      </c>
+      <c r="B46" s="4">
+        <f>C41</f>
+        <v>2</v>
+      </c>
+      <c r="C46" t="str">
+        <f>B38</f>
+        <v>León</v>
+      </c>
+      <c r="D46" s="4">
+        <f>C38</f>
+        <v>3.4</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" ref="F46:F48" si="0">IF(ABS(B46-D46)&lt;=1,"E",IF(B22&gt;D22,"G",IF(B22&lt;D22,"P","E")))</f>
+        <v>P</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="str">
+        <f>B42</f>
+        <v>Santos</v>
+      </c>
+      <c r="B47" s="4">
+        <f>C42</f>
+        <v>-1</v>
+      </c>
+      <c r="C47" t="str">
+        <f>B37</f>
+        <v>Pachuca</v>
+      </c>
+      <c r="D47" s="4">
+        <f>C37</f>
+        <v>0.4</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>P</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="str">
+        <f>B40</f>
+        <v>Guadalajara</v>
+      </c>
+      <c r="B48" s="4">
+        <f>C40</f>
+        <v>4.2</v>
+      </c>
+      <c r="C48" t="str">
+        <f>B39</f>
+        <v>America</v>
+      </c>
+      <c r="D48" s="4">
+        <f>C39</f>
+        <v>-2.6</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>G</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
